--- a/docs/data/data_breakdown.xlsx
+++ b/docs/data/data_breakdown.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27880" windowHeight="17540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1540" yWindow="8120" windowWidth="14400" windowHeight="9660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="FourSquare" sheetId="3" r:id="rId1"/>
@@ -4605,8 +4605,8 @@
   </sheetPr>
   <dimension ref="A1:G342"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="74" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="74" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12398,7 +12398,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="G1" activeCellId="1" sqref="D1:D1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12791,7 +12791,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13513,7 +13513,7 @@
   </sheetPr>
   <dimension ref="A1:M185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -13521,6 +13521,7 @@
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="2.5" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" customWidth="1"/>
   </cols>

--- a/docs/data/data_breakdown.xlsx
+++ b/docs/data/data_breakdown.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="8120" windowWidth="14400" windowHeight="9660" tabRatio="500"/>
+    <workbookView xWindow="1080" yWindow="-20120" windowWidth="27720" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FourSquare" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="1323">
   <si>
     <t>Search API</t>
   </si>
@@ -4019,6 +4019,12 @@
   </si>
   <si>
     <t>Questions --&gt;</t>
+  </si>
+  <si>
+    <t>Feeling Trendy?</t>
+  </si>
+  <si>
+    <t>category_id</t>
   </si>
 </sst>
 </file>
@@ -4605,7 +4611,7 @@
   </sheetPr>
   <dimension ref="A1:G342"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="74" workbookViewId="0">
+    <sheetView zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="74" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -12395,10 +12401,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" activeCellId="1" sqref="D1:D1048576 G1:G1048576"/>
+    <sheetView zoomScale="177" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12441,6 +12447,9 @@
       <c r="C2" t="s">
         <v>1228</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -12466,6 +12475,9 @@
       <c r="C4" t="s">
         <v>42</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -12775,6 +12787,17 @@
         <v>1313</v>
       </c>
       <c r="C32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C33" t="s">
         <v>42</v>
       </c>
     </row>
@@ -12790,8 +12813,8 @@
   </sheetPr>
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12815,7 +12838,7 @@
         <v>1223</v>
       </c>
       <c r="E1" t="s">
-        <v>1260</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -13631,19 +13654,19 @@
       </c>
       <c r="J8">
         <f>VLOOKUP($B8,Questions!$A$1:$G$98, 4, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <f>VLOOKUP($B8,Questions!$A$1:$G$98, 4, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f>VLOOKUP($B8,Questions!$A$1:$G$98, 4, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f>VLOOKUP($B8,Questions!$A$1:$G$98, 4, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -13681,19 +13704,19 @@
       </c>
       <c r="J9">
         <f>VLOOKUP($B9,Questions!$A$1:$G$98, 4, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <f>VLOOKUP($B9,Questions!$A$1:$G$98, 4, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <f>VLOOKUP($B9,Questions!$A$1:$G$98, 4, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f>VLOOKUP($B9,Questions!$A$1:$G$98, 4, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -13881,19 +13904,19 @@
       </c>
       <c r="J13">
         <f>VLOOKUP($B13,Questions!$A$1:$G$98, 4, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <f>VLOOKUP($B13,Questions!$A$1:$G$98, 4, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <f>VLOOKUP($B13,Questions!$A$1:$G$98, 4, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <f>VLOOKUP($B13,Questions!$A$1:$G$98, 4, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
